--- a/src/main/resources/books.xlsx
+++ b/src/main/resources/books.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -52,6 +52,18 @@
     </r>
   </si>
   <si>
+    <t>faterh</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -74,6 +86,18 @@
     </r>
   </si>
   <si>
+    <t>faterh1</t>
+  </si>
+  <si>
+    <t>mother1</t>
+  </si>
+  <si>
+    <t>subject1</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -96,6 +120,18 @@
     </r>
   </si>
   <si>
+    <t>faterh2</t>
+  </si>
+  <si>
+    <t>mother2</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -118,6 +154,18 @@
     </r>
   </si>
   <si>
+    <t>faterh3</t>
+  </si>
+  <si>
+    <t>mother3</t>
+  </si>
+  <si>
+    <t>subject3</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -140,6 +188,18 @@
     </r>
   </si>
   <si>
+    <t>faterh4</t>
+  </si>
+  <si>
+    <t>mother4</t>
+  </si>
+  <si>
+    <t>subject4</t>
+  </si>
+  <si>
+    <t>address4</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -162,10 +222,34 @@
     </r>
   </si>
   <si>
+    <t>faterh5</t>
+  </si>
+  <si>
+    <t>mother5</t>
+  </si>
+  <si>
+    <t>subject5</t>
+  </si>
+  <si>
+    <t>address5</t>
+  </si>
+  <si>
     <t>Excel Book 6</t>
   </si>
   <si>
     <t>Author 6</t>
+  </si>
+  <si>
+    <t>faterh6</t>
+  </si>
+  <si>
+    <t>mother6</t>
+  </si>
+  <si>
+    <t>subject6</t>
+  </si>
+  <si>
+    <t>address6</t>
   </si>
 </sst>
 </file>
@@ -822,29 +906,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1172,110 +1247,199 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="7.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:4">
+    <row r="1" ht="17.55" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="17.55" spans="1:4">
-      <c r="A2" s="4">
+    <row r="2" ht="17.55" spans="1:8">
+      <c r="A2" s="3">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17.55" spans="1:8">
+      <c r="A3" s="3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="17.55" spans="1:8">
+      <c r="A4" s="3">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="17.55" spans="1:8">
+      <c r="A5" s="3">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:8">
+      <c r="A6" s="5">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" ht="17.55" spans="1:4">
-      <c r="A3" s="4">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="17.55" spans="1:4">
-      <c r="A4" s="4">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="17.55" spans="1:4">
-      <c r="A5" s="4">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="16.8" spans="1:4">
-      <c r="A6" s="7">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="16.8" spans="1:4">
+    <row r="7" ht="16.8" spans="1:8">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:2">

--- a/src/main/resources/books.xlsx
+++ b/src/main/resources/books.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
   <si>
     <r>
@@ -1247,20 +1250,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="7.33333333333333" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:8">
+    <row r="1" ht="17.55" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,8 +1288,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="17.55" spans="1:8">
+    <row r="2" ht="17.55" spans="1:9">
       <c r="A2" s="3">
         <v>11</v>
       </c>
@@ -1294,25 +1300,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" ht="17.55" spans="1:8">
+    <row r="3" ht="17.55" spans="1:9">
       <c r="A3" s="3">
         <v>12</v>
       </c>
@@ -1320,25 +1329,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" ht="17.55" spans="1:8">
+    <row r="4" ht="17.55" spans="1:9">
       <c r="A4" s="3">
         <v>13</v>
       </c>
@@ -1346,25 +1358,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="1:8">
+    <row r="5" ht="17.55" spans="1:9">
       <c r="A5" s="3">
         <v>14</v>
       </c>
@@ -1372,25 +1387,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:8">
+    <row r="6" ht="16.8" spans="1:9">
       <c r="A6" s="5">
         <v>15</v>
       </c>
@@ -1398,25 +1416,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>66</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:8">
+    <row r="7" ht="16.8" spans="1:9">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1424,22 +1445,25 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:2">

--- a/src/main/resources/books.xlsx
+++ b/src/main/resources/books.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -67,6 +67,9 @@
     <t>mobile</t>
   </si>
   <si>
+    <t>cst_date</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -101,6 +104,9 @@
     <t>address1</t>
   </si>
   <si>
+    <t>23-10-2023T14:30:00Z</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -135,6 +141,9 @@
     <t>address2</t>
   </si>
   <si>
+    <t>21-10-2023T20:45:00Z</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -169,6 +178,9 @@
     <t>address3</t>
   </si>
   <si>
+    <t>19-10-2023T16:20:00Z</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -203,6 +215,9 @@
     <t>address4</t>
   </si>
   <si>
+    <t>23-10-2023T14:30:01Z</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -237,6 +252,17 @@
     <t>address5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>currentDate</t>
+    </r>
+  </si>
+  <si>
     <t>Excel Book 6</t>
   </si>
   <si>
@@ -253,6 +279,9 @@
   </si>
   <si>
     <t>address6</t>
+  </si>
+  <si>
+    <t>19-10-2023T16:20:01Z</t>
   </si>
 </sst>
 </file>
@@ -265,7 +294,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +306,12 @@
       <sz val="10.5"/>
       <color rgb="FFD1D5DB"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -779,137 +814,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +964,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,20 +1288,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="7.33333333333333" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:9">
+    <row r="1" ht="17.55" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1329,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="17.55" spans="1:9">
+    <row r="2" ht="17.55" spans="1:10">
       <c r="A2" s="3">
         <v>11</v>
       </c>
@@ -1300,28 +1341,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>22</v>
       </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="17.55" spans="1:9">
+    <row r="3" ht="17.55" spans="1:10">
       <c r="A3" s="3">
         <v>12</v>
       </c>
@@ -1329,28 +1373,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>33</v>
       </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" ht="17.55" spans="1:9">
+    <row r="4" ht="17.55" spans="1:10">
       <c r="A4" s="3">
         <v>13</v>
       </c>
@@ -1358,28 +1405,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>44</v>
       </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" ht="17.55" spans="1:9">
+    <row r="5" ht="17.55" spans="1:10">
       <c r="A5" s="3">
         <v>14</v>
       </c>
@@ -1387,28 +1437,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>55</v>
       </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" ht="16.8" spans="1:9">
+    <row r="6" ht="16.8" spans="1:10">
       <c r="A6" s="5">
         <v>15</v>
       </c>
@@ -1416,28 +1469,31 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I6">
         <v>66</v>
       </c>
+      <c r="J6" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" ht="16.8" spans="1:9">
+    <row r="7" ht="16.8" spans="1:10">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1445,35 +1501,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9">
-        <v>8</v>
+      <c r="J7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
